--- a/biology/Zoologie/Grayia_caesar/Grayia_caesar.xlsx
+++ b/biology/Zoologie/Grayia_caesar/Grayia_caesar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grayia caesar est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grayia caesar est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce de serpent aquatique.
-Ce serpent présente plusieurs bandes de couleurs blanches sur le corps. Il est a noter que les femelles en arborent plus que les mâles[2].
-Il mesure généralement autour de 70 cm. Cependant certains spécimens ont atteint les 116 cm[3].
-Il se nourrit principalement de poissons et d'amphibiens[3].
+Ce serpent présente plusieurs bandes de couleurs blanches sur le corps. Il est a noter que les femelles en arborent plus que les mâles.
+Il mesure généralement autour de 70 cm. Cependant certains spécimens ont atteint les 116 cm.
+Il se nourrit principalement de poissons et d'amphibiens.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, au Gabon, en Guinée équatoriale, en République centrafricaine, en République du Congo et en République démocratique du Congo[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, au Gabon, en Guinée équatoriale, en République centrafricaine, en République du Congo et en République démocratique du Congo. 
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1863 : Third account of new species of snakes in the collection of the British Museum. Annals and magazine of natural history, ser. 3, vol. 12, p. 348-365 (texte intégral).</t>
         </is>
